--- a/biology/Médecine/1742_en_santé_et_médecine/1742_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1742_en_santé_et_médecine/1742_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1742_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1742_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1742 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1742_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1742_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Canada
-Jean François Gauthier s'installe au Québec comme médecin du Roi[1],[2].
+Jean François Gauthier s'installe au Québec comme médecin du Roi,.
 Italie
-Le pape Benoît XIV crée un musée d'anatomie à Bologne, confiant à Ercole Lelli la création de plusieurs préparations anatomiques en cire[3].</t>
+Le pape Benoît XIV crée un musée d'anatomie à Bologne, confiant à Ercole Lelli la création de plusieurs préparations anatomiques en cire.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1742_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1742_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Niccolò Gualtieri (1688-1744) publie Index testarvm conchyliorvm quae adservantvr in mvseo Nicolai Gvaltieri ... : et methodice distribvtae exhibentvr tabvlis cx., Ex typographia Caietani Albizzini, 1742 (lire en ligne).
 James Parsons : Description de la vessie urinaire de l'homme, traduction d'un ouvrage (A description of the human urinary bladder, and parts belonging to it).</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1742_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1742_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>5 janvier : Antoine Portal (mort en 1832), médecin, anatomiste, biologiste et historien de la médecine français.
-22 février : Henry Michel du Tennetar (mort en 1800), médecin français et professeur de chimie à l'Université de Nancy en 1776[4].
+22 février : Henry Michel du Tennetar (mort en 1800), médecin français et professeur de chimie à l'Université de Nancy en 1776.
 14 août : Antoine-Louis Brongniart (mort en 1804), apothicaire et chimiste français.
 12 octobre : Maximilian Stoll (mort en 1788),  médecin allemand.
 6 décembre : Nicolas Leblanc (mort en 1806), médecin et chimiste français.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1742_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1742_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +628,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17 février : Kilian Stobæus (né en 1690), médecin et naturaliste suédois[5].
-13 mai : Nicolas Andry de Boisregard (né en 1658), médecin et homme de lettres français. Surnommé « le père de la parasitologie »[6], il est également le créateur du mot « orthopédie. »
-21 mai : Lars Roberg (né en 1664), médecin et anatomiste suédois[7].
-12 novembre : Friedrich Hoffmann (né en 1660), médecin et chimiste allemand[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17 février : Kilian Stobæus (né en 1690), médecin et naturaliste suédois.
+13 mai : Nicolas Andry de Boisregard (né en 1658), médecin et homme de lettres français. Surnommé « le père de la parasitologie », il est également le créateur du mot « orthopédie. »
+21 mai : Lars Roberg (né en 1664), médecin et anatomiste suédois.
+12 novembre : Friedrich Hoffmann (né en 1660), médecin et chimiste allemand.</t>
         </is>
       </c>
     </row>
